--- a/Spider/github_repositories_20251216_200757 - 筛选.xlsx
+++ b/Spider/github_repositories_20251216_200757 - 筛选.xlsx
@@ -8,19 +8,20 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\proj\gizmos\Spider\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37440C36-0B6E-45ED-B591-9801BE31BF23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B580C7B1-837B-4EF2-9A20-FB6F3789261E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{4092C62C-D8F0-4605-BB10-0A114751E281}"/>
   </bookViews>
   <sheets>
-    <sheet name="github_repositories_20251216_20" sheetId="1" r:id="rId1"/>
+    <sheet name="unreal插件筛选" sheetId="1" r:id="rId1"/>
+    <sheet name="etc" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1547" uniqueCount="1515">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1729" uniqueCount="1659">
   <si>
     <t>﻿仓库名称</t>
   </si>
@@ -4879,6 +4880,496 @@
   <si>
     <t>https://github.com/chexiongsheng/puerts_unreal_demo</t>
     <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>ikrima/gamedevguide</t>
+  </si>
+  <si>
+    <t>https://github.com/ikrima/gamedevguide</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>学习笔记</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Game Development &amp; Unreal Engine Programming Guide</t>
+  </si>
+  <si>
+    <t>mikeroyal/Unreal-Engine-Guide</t>
+  </si>
+  <si>
+    <t>https://github.com/mikeroyal/Unreal-Engine-Guide</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>学习资料</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Unreal Engine 5 Guide. Learn to develop games for Windows, Linux, macOS, iOS, Android, Xbox Series X|S, PlayStation  5, Nintendo Switch.</t>
+  </si>
+  <si>
+    <t>MrRobinOfficial/Guide-UnrealEngine</t>
+  </si>
+  <si>
+    <t>https://github.com/MrRobinOfficial/Guide-UnrealEngine</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>This repository is designed to help developers learn how to get started with Unreal Engine and C++.</t>
+  </si>
+  <si>
+    <t>Megafunk/MassSample</t>
+  </si>
+  <si>
+    <t>https://github.com/Megafunk/MassSample</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>ECS样例</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>My understanding of Unreal Engine 5's experimental ECS plugin with a small sample project.</t>
+  </si>
+  <si>
+    <t>Temaran/UnrealEngineShaderPluginDemo</t>
+  </si>
+  <si>
+    <t>https://github.com/Temaran/UnrealEngineShaderPluginDemo</t>
+  </si>
+  <si>
+    <t>HLSL样例</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>A tutorial project that shows how to implement HLSL Pixel and Compute shaders in UE4</t>
+  </si>
+  <si>
+    <t>YawLighthouse/UMG-Slate-Compendium</t>
+  </si>
+  <si>
+    <t>https://github.com/YawLighthouse/UMG-Slate-Compendium</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>UI框架介绍</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>A Compendium Information Guide for UMG and Slate in Unreal Engine.</t>
+  </si>
+  <si>
+    <t>fjz13/UnrealSpecifiers</t>
+  </si>
+  <si>
+    <t>https://github.com/fjz13/UnrealSpecifiers</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>学习资料-标识符</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>UE5标识符详解，包含100多个标识符以及300多个meta的解释和示例。Detailed Explanation of UE5 Identifiers, including over 100 identifiers and explanations and examples for more than 300 meta tags.</t>
+  </si>
+  <si>
+    <t>Spuckwaffel/UEDumper</t>
+  </si>
+  <si>
+    <t>https://github.com/Spuckwaffel/UEDumper</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>反编译ue游戏</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>The most powerful Unreal Engine Dumper and Editor for UE 4.19 - 5.3</t>
+  </si>
+  <si>
+    <t>kp7742/UE4Dumper</t>
+  </si>
+  <si>
+    <t>https://github.com/kp7742/UE4Dumper</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Unreal Engine 4 Dumper - Dump libUE4.so and Generate Structure SDK</t>
+  </si>
+  <si>
+    <t>adamrehn/ue4-docker</t>
+  </si>
+  <si>
+    <t>https://github.com/adamrehn/ue4-docker</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>docker</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Windows and Linux containers for Unreal Engine 4</t>
+  </si>
+  <si>
+    <t>DruidMech/UE5_TheUltimateDeveloperCourse</t>
+  </si>
+  <si>
+    <t>https://github.com/DruidMech/UE5_TheUltimateDeveloperCourse</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Unreal Engine 5 C++ The Ultimate Developer Course</t>
+  </si>
+  <si>
+    <t>terrehbyte/awesome-ue4</t>
+  </si>
+  <si>
+    <t>https://github.com/terrehbyte/awesome-ue4</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>A curated list of resources for working with Unreal Engine 4. (Awesome Unreal Engine 4)</t>
+  </si>
+  <si>
+    <t>sebh/UnrealEngineSkyAtmosphere</t>
+  </si>
+  <si>
+    <t>https://github.com/sebh/UnrealEngineSkyAtmosphere</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>大气渲染</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Unreal Engine Sky Atmosphere Rendering Technique</t>
+  </si>
+  <si>
+    <t>npruehs/ue4-rts</t>
+  </si>
+  <si>
+    <t>https://github.com/npruehs/ue4-rts</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>RTS游戏</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Real-time strategy plugin and showcase for Unreal Engine 4.</t>
+  </si>
+  <si>
+    <t>ProjectBorealis/UEGitPlugin</t>
+  </si>
+  <si>
+    <t>https://github.com/ProjectBorealis/UEGitPlugin</t>
+  </si>
+  <si>
+    <t>Unreal Engine Git Source Control Plugin (refactored)</t>
+  </si>
+  <si>
+    <t>MOZGIII/ue5-gitignore</t>
+  </si>
+  <si>
+    <t>https://github.com/MOZGIII/ue5-gitignore</t>
+  </si>
+  <si>
+    <t>A git setup example with git-lfs for Unreal Engine 5 (and 4) projects.</t>
+  </si>
+  <si>
+    <t>ryanjon2040/Unreal-Binary-Builder</t>
+  </si>
+  <si>
+    <t>https://github.com/ryanjon2040/Unreal-Binary-Builder</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>git插件-直接构建git仓库unreal工程</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>An application designed to create installed Unreal Engine builds (aka Rocket builds) from Unreal Engine GitHub source.</t>
+  </si>
+  <si>
+    <t>guttir14/UnrealDumper-4.25</t>
+  </si>
+  <si>
+    <t>https://github.com/guttir14/UnrealDumper-4.25</t>
+  </si>
+  <si>
+    <t>tomlooman/ue4-tutorials</t>
+  </si>
+  <si>
+    <t>https://github.com/tomlooman/ue4-tutorials</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Collection of Unreal 4 Tutorials &amp; Experiments.</t>
+  </si>
+  <si>
+    <t>bw2012/UE4VoxelTerrain</t>
+  </si>
+  <si>
+    <t>https://github.com/bw2012/UE4VoxelTerrain</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>体素Terrain</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Unreal Engine 4: Smooth voxel terrian example</t>
+  </si>
+  <si>
+    <t>ibbles/LearningUnrealEngine</t>
+  </si>
+  <si>
+    <t>https://github.com/ibbles/LearningUnreal</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>[Deprecated, see LearningUnreal instead.] A bunch of notes and code snippets that I write while figuring out how to use the Unreal Engine.</t>
+  </si>
+  <si>
+    <t>Phyronnaz/HLSLMaterial</t>
+  </si>
+  <si>
+    <t>https://github.com/Phyronnaz/HLSLMaterial</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>材质</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>HLSL Material for Unreal Engine</t>
+  </si>
+  <si>
+    <t>ue4plugins/LoadingScreen</t>
+  </si>
+  <si>
+    <t>https://github.com/ue4plugins/LoadingScreen</t>
+  </si>
+  <si>
+    <t>A plugin for Unreal Engine 4 to expose simple controls for managing load screens.</t>
+  </si>
+  <si>
+    <t>Polarmods/DevX-Cracked</t>
+  </si>
+  <si>
+    <t>https://github.com/Polarmods/DevX-Cracked</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>破解器</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cracked and improved version of DevX, a powerful Unity and Unreal Engine tool.</t>
+  </si>
+  <si>
+    <t>EliotVU/Unreal-Library</t>
+  </si>
+  <si>
+    <t>https://github.com/EliotVU/Unreal-Library</t>
+  </si>
+  <si>
+    <t>Decompiler for Unreal package files (.upk, .u, .uasset; etc), with support for Unreal Engine 1, 2, and 3</t>
+  </si>
+  <si>
+    <t>jbtronics/UE4-CheatSheet</t>
+  </si>
+  <si>
+    <t>https://github.com/jbtronics/UE4-CheatSheet</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>An Cheat Sheet for Unreal Engine 4 C++ programming, licensed under CC BY-NC-SA 4.0</t>
+  </si>
+  <si>
+    <t>neil3d/UnrealCookbook</t>
+  </si>
+  <si>
+    <t>https://github.com/neil3d/UnrealCookbook</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>虚幻4引擎的一些编程实践分享</t>
+  </si>
+  <si>
+    <t>NotYetGames/WarriOrb</t>
+  </si>
+  <si>
+    <t>https://github.com/NotYetGames/WarriOrb</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>动作游戏</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Full source code for WarriOrb, a Dark-Souls like action platformer - using Unreal Engine 4</t>
+  </si>
+  <si>
+    <t>JanSeliv/Bomber</t>
+  </si>
+  <si>
+    <t>https://github.com/JanSeliv/Bomber</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>多人游戏</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Open-source multiplayer game made in Unreal Engine 5.6</t>
+  </si>
+  <si>
+    <t>mikeroyal/Game-Console-Dev-Guide</t>
+  </si>
+  <si>
+    <t>https://github.com/mikeroyal/Game-Console-Dev-Guide</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>学习资料 主机游戏</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Game Console Dev Guide. Learn to develop games for Xbox Series X|S, PlayStation 5, Nintendo Switch, Steam Deck, and Apple Silicon. Developing with Unreal Engine 5, Unity, Godot Engine, and Blender.</t>
+  </si>
+  <si>
+    <t>drichardson/UnrealEngineExamples</t>
+  </si>
+  <si>
+    <t>https://github.com/drichardson/UnrealEngineExamples</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>学习资料 样例工程</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> Unreal Engine Example projects. Includes UE4 and UE5 examples.</t>
+  </si>
+  <si>
+    <t>pfist/Nano</t>
+  </si>
+  <si>
+    <t>https://github.com/pfist/Nano</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>游戏模板</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>A tiny template for tiny Unreal games.</t>
+  </si>
+  <si>
+    <t>vahabahmadvand/ActionRPG_UE5</t>
+  </si>
+  <si>
+    <t>https://github.com/vahabahmadvand/ActionRPG_UE5</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>动作RPG游戏</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>An Action RPG sample project is upgraded to the latest Unreal Engine, It works with UE 5.3+. It is a great learning resource for GAS (Gameplay Ability System)</t>
+  </si>
+  <si>
+    <t>RedPandaProjects/UnrealEngine</t>
+  </si>
+  <si>
+    <t>https://github.com/RedPandaProjects/UnrealEngine</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>UnrealEngine 1998</t>
+  </si>
+  <si>
+    <t>drstreit/unreal_schematics</t>
+  </si>
+  <si>
+    <t>https://github.com/drstreit/unreal_schematics</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Schematics from Unreal official training at https://learn.unrealengine.com/home/LearningPath/113226</t>
+  </si>
+  <si>
+    <t>Deema35/Climbing-Movement-Component</t>
+  </si>
+  <si>
+    <t>https://github.com/Deema35/Climbing-Movement-Component</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>移动和攀爬</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Climbing Movement Component  for Unreal Engine.</t>
+  </si>
+  <si>
+    <t>Allar/compiling-unreal</t>
+  </si>
+  <si>
+    <t>https://github.com/Allar/compiling-unreal</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>学习资料 编译流程</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>A man's notes as he discovers how Unreal Engine compiles things</t>
+  </si>
+  <si>
+    <t>DruidMech/UE4-CPP-Shooter-Series</t>
+  </si>
+  <si>
+    <t>https://github.com/DruidMech/UE4-CPP-Shooter-Series</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>设计游戏</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Unreal Engine C++ Shooter Series Project</t>
+  </si>
+  <si>
+    <t>Soverance/EtherealLegends</t>
+  </si>
+  <si>
+    <t>https://github.com/Soverance/EtherealLegends</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>独立游戏</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ethereal Legends - An Indie Action RPG built with Unreal Engine 4 for Steam, PS4, and Xbox One.</t>
+  </si>
+  <si>
+    <t>UnrealCourse/03_BuildingEscape</t>
+  </si>
+  <si>
+    <t>https://github.com/UnrealCourse/03_BuildingEscape</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>A simple First Person game to learn level building, lighting, Unreal Editor, C++ game logic, basic Blueprint and more. (ref: BE_URC) http://gdev.tv/urcgithub</t>
+  </si>
+  <si>
+    <t>https://github.com/ryanjon2040/RTS-Community-Project</t>
   </si>
 </sst>
 </file>
@@ -6054,7 +6545,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCA04E47-706C-4073-87BD-B76484384511}">
   <dimension ref="A1:F457"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A33" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
@@ -14803,4 +15294,975 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7243A230-052D-413B-A170-6CD54FA74441}">
+  <dimension ref="A1:F46"/>
+  <sheetViews>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="E54" sqref="E54"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="40" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" s="8" t="s">
+        <v>1515</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>1516</v>
+      </c>
+      <c r="C2" s="8">
+        <v>1069</v>
+      </c>
+      <c r="D2" s="8">
+        <v>108</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>1517</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>1518</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" s="15" t="s">
+        <v>1519</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>1520</v>
+      </c>
+      <c r="C3" s="15">
+        <v>1384</v>
+      </c>
+      <c r="D3" s="15">
+        <v>146</v>
+      </c>
+      <c r="E3" s="15" t="s">
+        <v>1521</v>
+      </c>
+      <c r="F3" s="15" t="s">
+        <v>1522</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" s="15" t="s">
+        <v>1523</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>1524</v>
+      </c>
+      <c r="C4" s="15">
+        <v>1286</v>
+      </c>
+      <c r="D4" s="15">
+        <v>111</v>
+      </c>
+      <c r="E4" s="15" t="s">
+        <v>1521</v>
+      </c>
+      <c r="F4" s="15" t="s">
+        <v>1525</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" s="8" t="s">
+        <v>1526</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>1527</v>
+      </c>
+      <c r="C5" s="8">
+        <v>1020</v>
+      </c>
+      <c r="D5" s="8">
+        <v>152</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>1528</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>1529</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" s="8" t="s">
+        <v>1530</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>1531</v>
+      </c>
+      <c r="C6" s="8">
+        <v>990</v>
+      </c>
+      <c r="D6" s="8">
+        <v>252</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>1532</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>1533</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>1534</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>1535</v>
+      </c>
+      <c r="C7" s="8">
+        <v>966</v>
+      </c>
+      <c r="D7" s="8">
+        <v>87</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>1536</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>1537</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" s="8" t="s">
+        <v>1538</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>1539</v>
+      </c>
+      <c r="C8" s="8">
+        <v>945</v>
+      </c>
+      <c r="D8" s="8">
+        <v>148</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>1540</v>
+      </c>
+      <c r="F8" s="8" t="s">
+        <v>1541</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" s="8" t="s">
+        <v>1542</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>1543</v>
+      </c>
+      <c r="C9" s="8">
+        <v>1203</v>
+      </c>
+      <c r="D9" s="8">
+        <v>234</v>
+      </c>
+      <c r="E9" s="15" t="s">
+        <v>1544</v>
+      </c>
+      <c r="F9" s="8" t="s">
+        <v>1545</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" s="8" t="s">
+        <v>1546</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>1547</v>
+      </c>
+      <c r="C10" s="8">
+        <v>832</v>
+      </c>
+      <c r="D10" s="8">
+        <v>343</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>1544</v>
+      </c>
+      <c r="F10" s="8" t="s">
+        <v>1548</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" s="8" t="s">
+        <v>1549</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>1550</v>
+      </c>
+      <c r="C11" s="8">
+        <v>829</v>
+      </c>
+      <c r="D11" s="8">
+        <v>177</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>1551</v>
+      </c>
+      <c r="F11" s="8" t="s">
+        <v>1552</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" s="8" t="s">
+        <v>1553</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>1554</v>
+      </c>
+      <c r="C12" s="8">
+        <v>799</v>
+      </c>
+      <c r="D12" s="8">
+        <v>208</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>1521</v>
+      </c>
+      <c r="F12" s="8" t="s">
+        <v>1555</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" s="8" t="s">
+        <v>1556</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>1557</v>
+      </c>
+      <c r="C13" s="8">
+        <v>788</v>
+      </c>
+      <c r="D13" s="8">
+        <v>90</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>1521</v>
+      </c>
+      <c r="F13" s="8" t="s">
+        <v>1558</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14" s="8" t="s">
+        <v>1559</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>1560</v>
+      </c>
+      <c r="C14" s="8">
+        <v>786</v>
+      </c>
+      <c r="D14" s="8">
+        <v>74</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>1561</v>
+      </c>
+      <c r="F14" s="8" t="s">
+        <v>1562</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15" s="8" t="s">
+        <v>1563</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>1564</v>
+      </c>
+      <c r="C15" s="8">
+        <v>766</v>
+      </c>
+      <c r="D15" s="8">
+        <v>154</v>
+      </c>
+      <c r="E15" s="8" t="s">
+        <v>1565</v>
+      </c>
+      <c r="F15" s="8" t="s">
+        <v>1566</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16" s="8" t="s">
+        <v>1567</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>1568</v>
+      </c>
+      <c r="C16" s="8">
+        <v>727</v>
+      </c>
+      <c r="D16" s="8">
+        <v>144</v>
+      </c>
+      <c r="E16" s="15" t="s">
+        <v>1261</v>
+      </c>
+      <c r="F16" s="8" t="s">
+        <v>1569</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17" s="8" t="s">
+        <v>1570</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>1571</v>
+      </c>
+      <c r="C17" s="8">
+        <v>693</v>
+      </c>
+      <c r="D17" s="8">
+        <v>160</v>
+      </c>
+      <c r="E17" s="15" t="s">
+        <v>1261</v>
+      </c>
+      <c r="F17" s="8" t="s">
+        <v>1572</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18" s="8" t="s">
+        <v>1573</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>1574</v>
+      </c>
+      <c r="C18" s="8">
+        <v>686</v>
+      </c>
+      <c r="D18" s="8">
+        <v>152</v>
+      </c>
+      <c r="E18" s="8" t="s">
+        <v>1575</v>
+      </c>
+      <c r="F18" s="8" t="s">
+        <v>1576</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19" s="8" t="s">
+        <v>1577</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>1578</v>
+      </c>
+      <c r="C19" s="8">
+        <v>585</v>
+      </c>
+      <c r="D19" s="8">
+        <v>253</v>
+      </c>
+      <c r="E19" s="8" t="s">
+        <v>1544</v>
+      </c>
+      <c r="F19" s="8"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A20" s="8" t="s">
+        <v>1579</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>1580</v>
+      </c>
+      <c r="C20" s="8">
+        <v>596</v>
+      </c>
+      <c r="D20" s="8">
+        <v>185</v>
+      </c>
+      <c r="E20" s="8" t="s">
+        <v>1521</v>
+      </c>
+      <c r="F20" s="8" t="s">
+        <v>1581</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A21" s="8" t="s">
+        <v>1582</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>1583</v>
+      </c>
+      <c r="C21" s="8">
+        <v>587</v>
+      </c>
+      <c r="D21" s="8">
+        <v>126</v>
+      </c>
+      <c r="E21" s="8" t="s">
+        <v>1584</v>
+      </c>
+      <c r="F21" s="8" t="s">
+        <v>1585</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A22" s="8" t="s">
+        <v>1586</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>1587</v>
+      </c>
+      <c r="C22" s="8">
+        <v>368</v>
+      </c>
+      <c r="D22" s="8">
+        <v>56</v>
+      </c>
+      <c r="E22" s="8" t="s">
+        <v>1521</v>
+      </c>
+      <c r="F22" s="8" t="s">
+        <v>1588</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A23" s="8" t="s">
+        <v>1589</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>1590</v>
+      </c>
+      <c r="C23" s="8">
+        <v>535</v>
+      </c>
+      <c r="D23" s="8">
+        <v>77</v>
+      </c>
+      <c r="E23" s="15" t="s">
+        <v>1591</v>
+      </c>
+      <c r="F23" s="8" t="s">
+        <v>1592</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A24" s="8" t="s">
+        <v>1593</v>
+      </c>
+      <c r="B24" s="8" t="s">
+        <v>1594</v>
+      </c>
+      <c r="C24" s="8">
+        <v>511</v>
+      </c>
+      <c r="D24" s="8">
+        <v>159</v>
+      </c>
+      <c r="E24" s="8"/>
+      <c r="F24" s="8" t="s">
+        <v>1595</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A25" s="8" t="s">
+        <v>1596</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>1597</v>
+      </c>
+      <c r="C25" s="8">
+        <v>473</v>
+      </c>
+      <c r="D25" s="8">
+        <v>98</v>
+      </c>
+      <c r="E25" s="15" t="s">
+        <v>1598</v>
+      </c>
+      <c r="F25" s="8" t="s">
+        <v>1599</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A26" s="8" t="s">
+        <v>1600</v>
+      </c>
+      <c r="B26" s="8" t="s">
+        <v>1601</v>
+      </c>
+      <c r="C26" s="8">
+        <v>432</v>
+      </c>
+      <c r="D26" s="8">
+        <v>93</v>
+      </c>
+      <c r="E26" s="8" t="s">
+        <v>1304</v>
+      </c>
+      <c r="F26" s="8" t="s">
+        <v>1602</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A27" s="8" t="s">
+        <v>1603</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>1604</v>
+      </c>
+      <c r="C27" s="8">
+        <v>450</v>
+      </c>
+      <c r="D27" s="8">
+        <v>59</v>
+      </c>
+      <c r="E27" s="8"/>
+      <c r="F27" s="8" t="s">
+        <v>1605</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A28" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>1333</v>
+      </c>
+      <c r="C28" s="4">
+        <v>405</v>
+      </c>
+      <c r="D28" s="4">
+        <v>75</v>
+      </c>
+      <c r="E28" s="4" t="s">
+        <v>1334</v>
+      </c>
+      <c r="F28" s="4" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A29" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>1335</v>
+      </c>
+      <c r="C29" s="4">
+        <v>402</v>
+      </c>
+      <c r="D29" s="4">
+        <v>179</v>
+      </c>
+      <c r="E29" s="4" t="s">
+        <v>1336</v>
+      </c>
+      <c r="F29" s="4" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A30" s="8" t="s">
+        <v>238</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>1374</v>
+      </c>
+      <c r="C30" s="8">
+        <v>342</v>
+      </c>
+      <c r="D30" s="8">
+        <v>119</v>
+      </c>
+      <c r="E30" s="8" t="s">
+        <v>1375</v>
+      </c>
+      <c r="F30" s="8" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A31" s="8" t="s">
+        <v>1606</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>1607</v>
+      </c>
+      <c r="C31" s="8">
+        <v>336</v>
+      </c>
+      <c r="D31" s="8">
+        <v>110</v>
+      </c>
+      <c r="E31" s="8" t="s">
+        <v>1521</v>
+      </c>
+      <c r="F31" s="8" t="s">
+        <v>1608</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A32" s="8" t="s">
+        <v>1609</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>1610</v>
+      </c>
+      <c r="C32" s="8">
+        <v>332</v>
+      </c>
+      <c r="D32" s="8">
+        <v>62</v>
+      </c>
+      <c r="E32" s="15" t="s">
+        <v>1611</v>
+      </c>
+      <c r="F32" s="8" t="s">
+        <v>1612</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A33" s="8" t="s">
+        <v>1613</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>1614</v>
+      </c>
+      <c r="C33" s="8">
+        <v>325</v>
+      </c>
+      <c r="D33" s="8">
+        <v>48</v>
+      </c>
+      <c r="E33" s="11" t="s">
+        <v>1615</v>
+      </c>
+      <c r="F33" s="8" t="s">
+        <v>1616</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A34" s="4" t="s">
+        <v>1617</v>
+      </c>
+      <c r="B34" s="5" t="s">
+        <v>1618</v>
+      </c>
+      <c r="C34" s="4">
+        <v>321</v>
+      </c>
+      <c r="D34" s="4">
+        <v>25</v>
+      </c>
+      <c r="E34" s="4" t="s">
+        <v>1619</v>
+      </c>
+      <c r="F34" s="4" t="s">
+        <v>1620</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A35" s="8" t="s">
+        <v>1621</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>1622</v>
+      </c>
+      <c r="C35" s="8">
+        <v>311</v>
+      </c>
+      <c r="D35" s="8">
+        <v>62</v>
+      </c>
+      <c r="E35" s="8" t="s">
+        <v>1623</v>
+      </c>
+      <c r="F35" s="8" t="s">
+        <v>1624</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A36" s="8" t="s">
+        <v>1625</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>1626</v>
+      </c>
+      <c r="C36" s="8">
+        <v>308</v>
+      </c>
+      <c r="D36" s="8">
+        <v>17</v>
+      </c>
+      <c r="E36" s="8" t="s">
+        <v>1627</v>
+      </c>
+      <c r="F36" s="8" t="s">
+        <v>1628</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A37" s="8" t="s">
+        <v>1629</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>1630</v>
+      </c>
+      <c r="C37" s="8">
+        <v>305</v>
+      </c>
+      <c r="D37" s="8">
+        <v>64</v>
+      </c>
+      <c r="E37" s="8" t="s">
+        <v>1631</v>
+      </c>
+      <c r="F37" s="8" t="s">
+        <v>1632</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A38" s="8" t="s">
+        <v>1633</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>1634</v>
+      </c>
+      <c r="C38" s="8">
+        <v>297</v>
+      </c>
+      <c r="D38" s="8">
+        <v>80</v>
+      </c>
+      <c r="E38" s="8"/>
+      <c r="F38" s="8" t="s">
+        <v>1635</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A39" s="8" t="s">
+        <v>1636</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>1637</v>
+      </c>
+      <c r="C39" s="8">
+        <v>288</v>
+      </c>
+      <c r="D39" s="8">
+        <v>52</v>
+      </c>
+      <c r="E39" s="8" t="s">
+        <v>1521</v>
+      </c>
+      <c r="F39" s="8" t="s">
+        <v>1638</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A40" s="8" t="s">
+        <v>1639</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>1640</v>
+      </c>
+      <c r="C40" s="8">
+        <v>271</v>
+      </c>
+      <c r="D40" s="8">
+        <v>71</v>
+      </c>
+      <c r="E40" s="8" t="s">
+        <v>1641</v>
+      </c>
+      <c r="F40" s="8" t="s">
+        <v>1642</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A41" s="8" t="s">
+        <v>1643</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>1644</v>
+      </c>
+      <c r="C41" s="8">
+        <v>271</v>
+      </c>
+      <c r="D41" s="8">
+        <v>19</v>
+      </c>
+      <c r="E41" s="8" t="s">
+        <v>1645</v>
+      </c>
+      <c r="F41" s="8" t="s">
+        <v>1646</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A42" s="8" t="s">
+        <v>1647</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>1648</v>
+      </c>
+      <c r="C42" s="8">
+        <v>245</v>
+      </c>
+      <c r="D42" s="8">
+        <v>95</v>
+      </c>
+      <c r="E42" s="8" t="s">
+        <v>1649</v>
+      </c>
+      <c r="F42" s="8" t="s">
+        <v>1650</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A43" s="8" t="s">
+        <v>1651</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>1652</v>
+      </c>
+      <c r="C43" s="8">
+        <v>243</v>
+      </c>
+      <c r="D43" s="8">
+        <v>52</v>
+      </c>
+      <c r="E43" s="8" t="s">
+        <v>1653</v>
+      </c>
+      <c r="F43" s="8" t="s">
+        <v>1654</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A44" s="8" t="s">
+        <v>1655</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>1656</v>
+      </c>
+      <c r="C44" s="8">
+        <v>147</v>
+      </c>
+      <c r="D44" s="8">
+        <v>184</v>
+      </c>
+      <c r="E44" s="8" t="s">
+        <v>1521</v>
+      </c>
+      <c r="F44" s="8" t="s">
+        <v>1657</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A45" s="8" t="s">
+        <v>438</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>1505</v>
+      </c>
+      <c r="C45" s="8">
+        <v>216</v>
+      </c>
+      <c r="D45" s="8">
+        <v>281</v>
+      </c>
+      <c r="E45" s="8" t="s">
+        <v>1521</v>
+      </c>
+      <c r="F45" s="8" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A46" s="8" t="s">
+        <v>409</v>
+      </c>
+      <c r="B46" s="8" t="s">
+        <v>1658</v>
+      </c>
+      <c r="C46" s="8">
+        <v>222</v>
+      </c>
+      <c r="D46" s="8">
+        <v>100</v>
+      </c>
+      <c r="E46" s="8" t="s">
+        <v>1565</v>
+      </c>
+      <c r="F46" s="8" t="s">
+        <v>410</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{23EA39A0-E3A9-4F84-AA1F-15F67CDF4064}"/>
+    <hyperlink ref="B3" r:id="rId2" xr:uid="{DFF38194-4225-4233-8E2C-CCFC3FF7702C}"/>
+    <hyperlink ref="B4" r:id="rId3" xr:uid="{FBF0301D-C5D2-45F8-B8EA-3E67CC364D6A}"/>
+    <hyperlink ref="B5" r:id="rId4" xr:uid="{E92B77D3-22FD-4513-8AEB-2A00095FBCD8}"/>
+    <hyperlink ref="B7" r:id="rId5" xr:uid="{EA99918A-7B07-495D-A258-77A97194185D}"/>
+    <hyperlink ref="B8" r:id="rId6" xr:uid="{5AF1085E-E03D-4BA0-9EC2-651008BBC39F}"/>
+    <hyperlink ref="B9" r:id="rId7" xr:uid="{8B13CD79-0598-4100-8E74-7961964090A2}"/>
+    <hyperlink ref="B10" r:id="rId8" xr:uid="{8C17D5E8-3411-4066-AB92-FEF5568F96D2}"/>
+    <hyperlink ref="B11" r:id="rId9" xr:uid="{001432DA-3D1C-4CE7-BF40-A4873291E39B}"/>
+    <hyperlink ref="B12" r:id="rId10" xr:uid="{A9B91779-8D6E-4756-9E2B-D59C40AA81E0}"/>
+    <hyperlink ref="B13" r:id="rId11" xr:uid="{3C03665E-28C2-47CE-A2CA-AAC7C129EAF8}"/>
+    <hyperlink ref="B14" r:id="rId12" xr:uid="{FE9A149B-2ACD-4519-8D71-D49990985BB1}"/>
+    <hyperlink ref="B15" r:id="rId13" xr:uid="{849BD529-F6B0-43E2-9C82-BA1C55E4936B}"/>
+    <hyperlink ref="B18" r:id="rId14" xr:uid="{74201CE0-704E-49FD-86D8-83400048C34A}"/>
+    <hyperlink ref="B20" r:id="rId15" xr:uid="{0BACD5C1-7B09-4737-828D-9C857D48099C}"/>
+    <hyperlink ref="B21" r:id="rId16" xr:uid="{58B3E534-8ED4-4C5B-84DC-FCFEB78E01E6}"/>
+    <hyperlink ref="B22" r:id="rId17" xr:uid="{4DA43B4D-7C14-4B46-86FA-97C5CA0383A2}"/>
+    <hyperlink ref="B23" r:id="rId18" xr:uid="{14E23496-4F8C-43DD-BBE7-5DCB71860485}"/>
+    <hyperlink ref="B25" r:id="rId19" xr:uid="{4CA82AD7-0ABB-4CCE-BF49-19F6CB5A2A20}"/>
+    <hyperlink ref="B27" r:id="rId20" xr:uid="{0ACEE08D-4BDA-4ACE-BC1B-28061E40108E}"/>
+    <hyperlink ref="B28" r:id="rId21" xr:uid="{B80E965E-4418-4FFA-A717-951CA24AA34B}"/>
+    <hyperlink ref="B29" r:id="rId22" xr:uid="{05C4FAC9-9006-4257-995E-82C795C22027}"/>
+    <hyperlink ref="B30" r:id="rId23" xr:uid="{A2741516-1CA4-463A-B58C-E6C47E4374AC}"/>
+    <hyperlink ref="B31" r:id="rId24" xr:uid="{5462B034-92DF-4AD2-8DE4-A0FD05C7FFD2}"/>
+    <hyperlink ref="B32" r:id="rId25" xr:uid="{DF82B2BA-E500-4464-B8FC-214D78D74B97}"/>
+    <hyperlink ref="B33" r:id="rId26" xr:uid="{C3BC6B6F-0693-4AC3-97EE-CE6E620382DE}"/>
+    <hyperlink ref="B34" r:id="rId27" xr:uid="{736BC0F0-181D-42B3-88A7-77A2D401EE91}"/>
+    <hyperlink ref="B35" r:id="rId28" xr:uid="{36C3424A-BF97-4E69-9CDD-CE16DDCCF4C2}"/>
+    <hyperlink ref="B36" r:id="rId29" xr:uid="{DF4411FE-E25A-41BC-98CC-37BB2E7E68E4}"/>
+    <hyperlink ref="B37" r:id="rId30" xr:uid="{1CD8D964-BC51-4B6D-BA2D-00FF7953BD44}"/>
+    <hyperlink ref="B38" r:id="rId31" xr:uid="{B2A6D0BC-6A70-4E12-ABC5-F7144F092478}"/>
+    <hyperlink ref="B39" r:id="rId32" xr:uid="{13000F73-09BA-4B1B-98AA-C662506B009E}"/>
+    <hyperlink ref="B40" r:id="rId33" xr:uid="{99B51864-8DD9-4CDA-A191-024BFCC68BBA}"/>
+    <hyperlink ref="B41" r:id="rId34" xr:uid="{9B91A642-DFC1-4D38-965F-D22B62D59E02}"/>
+    <hyperlink ref="B42" r:id="rId35" xr:uid="{AC69A9C8-3924-45AE-9040-113E99382AFB}"/>
+    <hyperlink ref="B43" r:id="rId36" xr:uid="{7F094849-B01B-4AAB-BA75-BD99412BCF88}"/>
+    <hyperlink ref="B44" r:id="rId37" xr:uid="{96DC659E-7529-4060-A297-450A13E8820C}"/>
+    <hyperlink ref="B45" r:id="rId38" xr:uid="{6B2895C3-5777-48CB-8034-25D6CF4D612F}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Spider/github_repositories_20251216_200757 - 筛选.xlsx
+++ b/Spider/github_repositories_20251216_200757 - 筛选.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\proj\gizmos\Spider\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B580C7B1-837B-4EF2-9A20-FB6F3789261E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DCA54D2-A1D2-462D-8D65-5A83A346E1A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{4092C62C-D8F0-4605-BB10-0A114751E281}"/>
   </bookViews>
@@ -6545,8 +6545,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCA04E47-706C-4073-87BD-B76484384511}">
   <dimension ref="A1:F457"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A33" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C33" sqref="C33"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F47" sqref="F47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -15293,6 +15293,7 @@
     <hyperlink ref="B185" r:id="rId158" xr:uid="{C7C14328-89ED-4A0C-A2A2-28FD30A63E70}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId159"/>
 </worksheet>
 </file>
 
